--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>960882.1147440384</v>
+        <v>958446.4778203319</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673447</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>21.27902055890999</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>40.16427066024094</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>42.3375478533745</v>
+        <v>407.8895948559971</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.51522928004346</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>71.6257403966498</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>61.42978662487899</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329767</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>158.2123312937431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238041</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114111</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035295</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6388277260469</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009517</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793497</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20.32193505024577</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824784</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272892</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>145.2692016866628</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>18.93832930943129</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740296</v>
       </c>
       <c r="D28" t="n">
-        <v>38.61213096654769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323831</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.696957004696</v>
       </c>
       <c r="D31" t="n">
-        <v>123.797182079703</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>245.8267803122425</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.8410052537953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881274</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833414</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2734.312968633809</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.544313363695</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.078555102614</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064752</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4486,16 +4486,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1473.272078120965</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1218.587589915078</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>929.1704198781175</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>701.1808689801002</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.1808689801002</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1561.900772669912</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1561.900772669912</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1203.635074063161</v>
+        <v>1210.83606070513</v>
       </c>
       <c r="E5" t="n">
-        <v>817.8468214649172</v>
+        <v>825.0478081068854</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8609166753096</v>
+        <v>818.102307357682</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4574,13 +4574,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669912</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635886</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>1356.361036635886</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>1135.568457492356</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3253.256588885283</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3047.278841269505</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2793.748364543341</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2793.748364543341</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1788.749549056737</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="C11" t="n">
-        <v>1419.787032116326</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1061.521333509575</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>675.7330809113309</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610856</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
         <v>101.3471995907325</v>
@@ -5036,55 +5036,55 @@
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386827</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420312</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765421</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687097</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856278</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882236</v>
+        <v>3835.937563882242</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234586</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455656</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971435</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971435</v>
+        <v>3369.29530560405</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.723134627865</v>
+        <v>3038.232418260479</v>
       </c>
       <c r="W11" t="n">
-        <v>2938.954479357751</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2565.488721096671</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.349389120859</v>
+        <v>1921.858672753473</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550304</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469172</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469172</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843912</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282801</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>793.5761267923508</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="C13" t="n">
-        <v>690.9106442407882</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="D13" t="n">
-        <v>540.7940048284524</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="E13" t="n">
-        <v>392.8809112460593</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>245.990963748149</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469172</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600398</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457698</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888908</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1968.108379906986</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1968.108379906986</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1713.423891701099</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1424.006721664138</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>1196.017170766121</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>975.2245916225905</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,22 +5276,22 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021282</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
         <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1036.281605555077</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>867.3454226271699</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="D16" t="n">
-        <v>717.2287832148343</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="E16" t="n">
-        <v>569.3156896324413</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>422.425742134531</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>255.2115473091098</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>113.3388303475406</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.205584149098</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.129370463825</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.129370463825</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1666.712200426864</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1438.722649528847</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1217.930070385316</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,13 +5753,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254211</v>
+        <v>580.8993044876672</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851784</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851784</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>983.3403484614371</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556608</v>
+        <v>762.547769317907</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,13 +6026,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327645</v>
+        <v>513.853600740066</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048576</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138359</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703057</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851669</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C31" t="n">
-        <v>527.77225215726</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154066</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656161</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377092</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253735</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1400.559342807164</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>951.7772127656161</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261129</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="44">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803086</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>248.6637144479683</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>65.60799337258098</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726067</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034043</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146347</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.2915261372894</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.1621704186342</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>61.48264169416325</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.60858003038</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012376</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>80.44045370237433</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.7713260796059</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459828</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393187</v>
       </c>
       <c r="D31" t="n">
-        <v>24.81829093850932</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.310863011585468</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.99097492814198</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237473</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.4467738245971</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194254</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895446.2781618668</v>
+        <v>895446.2781618676</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974194.7173358592</v>
+        <v>974194.7173358591</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982293</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>979554.9109982291</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982289</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982293</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982291</v>
       </c>
     </row>
     <row r="16">
@@ -26314,13 +26314,13 @@
         <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795038</v>
+        <v>405380.8397795042</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
@@ -26335,25 +26335,25 @@
         <v>443930.6298295033</v>
       </c>
       <c r="J2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="K2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185146</v>
+        <v>143114.1392185158</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051393</v>
+        <v>166521.3471051381</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557868</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115295</v>
+        <v>37377.32855115332</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848954</v>
+        <v>43782.40655848917</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224528</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11677.85525949978</v>
@@ -26448,7 +26448,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214701</v>
+        <v>86093.72216214711</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1076069.723851787</v>
       </c>
       <c r="C6" t="n">
-        <v>252675.0218758053</v>
+        <v>252675.0218758056</v>
       </c>
       <c r="D6" t="n">
-        <v>252675.0218758055</v>
+        <v>252675.0218758054</v>
       </c>
       <c r="E6" t="n">
-        <v>164495.1231393424</v>
+        <v>164285.1588954968</v>
       </c>
       <c r="F6" t="n">
-        <v>163039.9551863589</v>
+        <v>162994.0501907945</v>
       </c>
       <c r="G6" t="n">
-        <v>319863.8875532118</v>
+        <v>319829.1496277758</v>
       </c>
       <c r="H6" t="n">
-        <v>331031.1237887905</v>
+        <v>330996.3858633549</v>
       </c>
       <c r="I6" t="n">
-        <v>331031.1237887904</v>
+        <v>330996.3858633547</v>
       </c>
       <c r="J6" t="n">
-        <v>113499.9213915131</v>
+        <v>113465.1834660773</v>
       </c>
       <c r="K6" t="n">
-        <v>331031.1237887906</v>
+        <v>330996.3858633548</v>
       </c>
       <c r="L6" t="n">
-        <v>331031.1237887905</v>
+        <v>330996.3858633548</v>
       </c>
       <c r="M6" t="n">
-        <v>293653.7952376376</v>
+        <v>293619.0573122015</v>
       </c>
       <c r="N6" t="n">
-        <v>287248.7172303009</v>
+        <v>287213.9793048657</v>
       </c>
       <c r="O6" t="n">
-        <v>328007.825811566</v>
+        <v>327973.0878861301</v>
       </c>
       <c r="P6" t="n">
-        <v>331031.1237887905</v>
+        <v>330996.3858633547</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,13 +26796,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086465</v>
+        <v>981.388327808648</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012567</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218308</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063537</v>
+        <v>149.9868724063551</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173604</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063537</v>
+        <v>149.9868724063551</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173604</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063537</v>
+        <v>149.9868724063551</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173604</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>306.4732379112249</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>246.0475675453719</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5841778000789</v>
+        <v>3.032130797456318</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.3167509018938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>37.56202139152603</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.707856698949</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.742195080722397e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.255632527897967e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.997827608620364e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-7.011744673613704e-13</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.182571628561534e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.639090878564703e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485645</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508987</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307176</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726051</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216965</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857418</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.509834189838</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.05348002944</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461513</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188515</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.60730963196942</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059647</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310857</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845324</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147134</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431804</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205466</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071843</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697582</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691785</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619739</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263706</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973091</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570602</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929608</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826896</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
@@ -32084,19 +32084,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670518</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,16 +33263,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040313</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276245</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517092</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584691</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077533</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062435</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156576</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512116</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313801</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.749043298736</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062164</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211628</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701824</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882112</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190453</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998341</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35732,19 +35732,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837184</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060415</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
